--- a/git.xlsx
+++ b/git.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>תיאור</t>
   </si>
@@ -79,12 +79,54 @@
   </si>
   <si>
     <t>יצירת קובץ של קבצים לא למעקב</t>
+  </si>
+  <si>
+    <t>git commit -m "init commit"</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>על מנת לצפות ברשימת הקומיטים שבוצעו במאגר הנוכחי</t>
+  </si>
+  <si>
+    <t>ביצוע קומיט</t>
+  </si>
+  <si>
+    <t>git log --author "David"</t>
+  </si>
+  <si>
+    <t>על מנת לצפות בקומיטים שנוצרו על ידי משתמש מסוים</t>
+  </si>
+  <si>
+    <t>git log -n 10</t>
+  </si>
+  <si>
+    <t>צפייה ב 10 קומיטים אחרונים</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/twbs/bootstrap.git</t>
+  </si>
+  <si>
+    <t>הורדה מ github</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/YourGitHubUserName/YourGitHubRepositoryName.git</t>
+  </si>
+  <si>
+    <t>להגדיר את ה-Remote שלנו על ידי הפקודה הבאה</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>על מנת לדחוף את המאגר המקומי שלנו למאגר המרוחק נשתמש בפקודה הבאה:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,10 +169,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,20 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="102.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -432,7 +481,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -440,7 +489,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -448,7 +497,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -456,7 +505,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -464,7 +513,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -472,7 +521,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -480,27 +529,83 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
